--- a/504文档/招生/申请人员汇总.xlsx
+++ b/504文档/招生/申请人员汇总.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,13 +106,154 @@
   <si>
     <t>中南名族大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁非雪</t>
+  </si>
+  <si>
+    <t>武斌</t>
+  </si>
+  <si>
+    <t>刘录</t>
+  </si>
+  <si>
+    <t>杨飞虎</t>
+  </si>
+  <si>
+    <t>邵玉双</t>
+  </si>
+  <si>
+    <t>樊林峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张安</t>
+  </si>
+  <si>
+    <t>杨春松</t>
+  </si>
+  <si>
+    <t>安徽大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京科技大学</t>
+  </si>
+  <si>
+    <t>吉林大学</t>
+  </si>
+  <si>
+    <t>四川大学</t>
+  </si>
+  <si>
+    <t>湖北大学</t>
+  </si>
+  <si>
+    <t>lufeixue26@163.com</t>
+  </si>
+  <si>
+    <t>wubin5688@sina.cn</t>
+  </si>
+  <si>
+    <t>ustblulu@163.com</t>
+  </si>
+  <si>
+    <t>1759299720@qq.com</t>
+  </si>
+  <si>
+    <t>shaoyushuang0910@yahoo.com</t>
+  </si>
+  <si>
+    <t>1147906250@qq.com</t>
+  </si>
+  <si>
+    <t>ranffer@sina.com</t>
+  </si>
+  <si>
+    <t>2538453059@qq.com</t>
+  </si>
+  <si>
+    <t>高分子材料与工程</t>
+  </si>
+  <si>
+    <t>中南民大</t>
+  </si>
+  <si>
+    <t>青岛科技大学</t>
+  </si>
+  <si>
+    <t>朱博</t>
+  </si>
+  <si>
+    <t>华南理工大学</t>
+  </si>
+  <si>
+    <t>材料与工程学院</t>
+  </si>
+  <si>
+    <t>2473778407@qq.com</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈阳工业大学</t>
+  </si>
+  <si>
+    <t>功能材料</t>
+  </si>
+  <si>
+    <t>人民大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜浩浩</t>
+  </si>
+  <si>
+    <t>北京理工大学</t>
+  </si>
+  <si>
+    <t>硕士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有机合成与小分子催化</t>
+  </si>
+  <si>
+    <t>13693212028@163.com</t>
+  </si>
+  <si>
+    <t>徐以强</t>
+  </si>
+  <si>
+    <t>东华大学</t>
+  </si>
+  <si>
+    <t>材料工程-聚丙腈纤维原丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1820735200@qq.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +286,69 @@
       <color rgb="FF555555"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="仿宋_GB2312"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,17 +368,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -473,116 +688,372 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="23.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" customWidth="1"/>
+    <col min="5" max="5" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17.399999999999999">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.2">
+      <c r="A13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E12" r:id="rId1" display="mailto:ranffer@sina.com"/>
+    <hyperlink ref="E13" r:id="rId2" display="mailto:2538453059@qq.com"/>
+    <hyperlink ref="E6" r:id="rId3" display="mailto:lufeixue26@163.com"/>
+    <hyperlink ref="E7" r:id="rId4" display="mailto:wubin5688@sina.cn"/>
+    <hyperlink ref="E16" r:id="rId5" display="mailto:13693212028@163.com"/>
+    <hyperlink ref="E17" r:id="rId6" display="mailto:1820735200@qq.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -593,7 +1064,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -606,7 +1077,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/504文档/招生/申请人员汇总.xlsx
+++ b/504文档/招生/申请人员汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,13 +247,17 @@
   </si>
   <si>
     <t>1820735200@qq.com</t>
+  </si>
+  <si>
+    <t>史杰中？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,94 +273,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF555555"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="仿宋_GB2312"/>
-      <family val="1"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -368,28 +315,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -691,76 +639,84 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" customWidth="1"/>
-    <col min="5" max="5" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -769,124 +725,146 @@
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I5" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I6" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I7" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="4" t="s">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I8" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -895,95 +873,118 @@
       <c r="D9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I9" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="5" t="s">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I10" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="17.399999999999999">
-      <c r="A11" s="2" t="s">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I11" t="s">
+      <c r="F11" s="1">
+        <v>15680021326</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="6" t="s">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I12" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="16.2">
-      <c r="A13" s="7" t="s">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I13" t="s">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -992,68 +993,85 @@
       <c r="D14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I14" t="s">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="C15" t="s">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="12" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1">
+        <v>15503591138</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I16" t="s">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="6" t="s">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I17" t="s">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="J17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E12" r:id="rId1" display="mailto:ranffer@sina.com"/>
-    <hyperlink ref="E13" r:id="rId2" display="mailto:2538453059@qq.com"/>
-    <hyperlink ref="E6" r:id="rId3" display="mailto:lufeixue26@163.com"/>
-    <hyperlink ref="E7" r:id="rId4" display="mailto:wubin5688@sina.cn"/>
-    <hyperlink ref="E16" r:id="rId5" display="mailto:13693212028@163.com"/>
-    <hyperlink ref="E17" r:id="rId6" display="mailto:1820735200@qq.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1064,7 +1082,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1077,9 +1095,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/504文档/招生/申请人员汇总.xlsx
+++ b/504文档/招生/申请人员汇总.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,7 +249,31 @@
     <t>1820735200@qq.com</t>
   </si>
   <si>
-    <t>史杰中？</t>
+    <t>史杰中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>732113174@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,9 +662,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -704,9 +728,7 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
@@ -785,7 +807,7 @@
         <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -1002,24 +1024,34 @@
       <c r="I14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="F15" s="1">
         <v>15503591138</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">

--- a/504文档/招生/申请人员汇总.xlsx
+++ b/504文档/招生/申请人员汇总.xlsx
@@ -281,7 +281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +303,23 @@
       <charset val="134"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -313,19 +330,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,21 +359,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -662,9 +685,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -678,429 +701,429 @@
     <col min="10" max="10" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="7">
         <v>15680021326</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="7">
         <v>15503591138</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="1"/>
+      <c r="J17" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/504文档/招生/申请人员汇总.xlsx
+++ b/504文档/招生/申请人员汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +274,26 @@
   </si>
   <si>
     <t>13号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王亚强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京化工大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料学院高分子科学与工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiao.qaing@aliyun.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,11 +703,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1077,45 +1097,43 @@
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" s="4"/>
+    <row r="16" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1124,6 +1142,30 @@
         <v>56</v>
       </c>
       <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/504文档/招生/申请人员汇总.xlsx
+++ b/504文档/招生/申请人员汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已回复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,6 +290,14 @@
   </si>
   <si>
     <t>xiao.qaing@aliyun.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一波通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,15 +383,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -402,6 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -707,7 +708,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D23:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -717,16 +718,16 @@
     <col min="4" max="4" width="30.44140625" customWidth="1"/>
     <col min="5" max="5" width="34.33203125" customWidth="1"/>
     <col min="6" max="6" width="19.77734375" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
     <col min="10" max="10" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -741,431 +742,433 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="E7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="E8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="5">
+        <v>15680021326</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="7" t="s">
+    <row r="15" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="7">
-        <v>15680021326</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="D15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="5">
+        <v>15503591138</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="7">
-        <v>15503591138</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="4"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/504文档/招生/申请人员汇总.xlsx
+++ b/504文档/招生/申请人员汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,6 +298,22 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13294178152 or 18271933065</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -403,6 +419,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -708,7 +727,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D23:D24"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -717,7 +736,7 @@
     <col min="3" max="3" width="19.5546875" customWidth="1"/>
     <col min="4" max="4" width="30.44140625" customWidth="1"/>
     <col min="5" max="5" width="34.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" customWidth="1"/>
+    <col min="6" max="6" width="27.21875" style="9" customWidth="1"/>
     <col min="9" max="9" width="18.44140625" customWidth="1"/>
     <col min="10" max="10" width="10.88671875" customWidth="1"/>
   </cols>
@@ -844,9 +863,15 @@
       <c r="E5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="I5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1114,9 +1139,15 @@
       <c r="E16" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="F16" s="5">
+        <v>15801027057</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="I16" s="5" t="s">
         <v>81</v>
       </c>

--- a/504文档/招生/申请人员汇总.xlsx
+++ b/504文档/招生/申请人员汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="85">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +98,6 @@
   </si>
   <si>
     <t>liyawu913@foxmail.com</t>
-  </si>
-  <si>
-    <t>中南名族大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>简历</t>
@@ -727,7 +723,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -746,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -761,13 +757,13 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>16</v>
@@ -778,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
@@ -802,7 +798,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>13</v>
@@ -828,13 +824,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>19</v>
@@ -852,10 +848,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>8</v>
@@ -864,36 +860,36 @@
         <v>22</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -905,19 +901,19 @@
     </row>
     <row r="7" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -929,19 +925,19 @@
     </row>
     <row r="8" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -953,19 +949,19 @@
     </row>
     <row r="9" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -977,19 +973,19 @@
     </row>
     <row r="10" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1001,17 +997,17 @@
     </row>
     <row r="11" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="5">
         <v>15680021326</v>
@@ -1025,19 +1021,19 @@
     </row>
     <row r="12" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -1049,19 +1045,19 @@
     </row>
     <row r="13" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -1073,45 +1069,45 @@
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="F15" s="5">
         <v>15503591138</v>
@@ -1119,85 +1115,85 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="F16" s="5">
         <v>15801027057</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J18" s="2"/>
     </row>

--- a/504文档/招生/申请人员汇总.xlsx
+++ b/504文档/招生/申请人员汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="111">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,6 +310,135 @@
   </si>
   <si>
     <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋国彬</t>
+  </si>
+  <si>
+    <t>中国林科院</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应用化学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天然产物的综合利用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>songguobin1989@126.com</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任嘉怡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁秀敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京化工大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高分子科学与工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>852863630@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高分子材料与工程专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18911938852@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁小蝶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料学院高分子材料专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2635261163@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李泽宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国科学技术大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hbsjzlzb@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡哲仁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caizherencc@163.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -317,7 +446,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +484,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -719,11 +861,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -964,8 +1106,12 @@
         <v>42</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="I9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1149,53 +1295,184 @@
       </c>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2" t="s">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="2">
+        <v>15887841007</v>
+      </c>
+      <c r="G24" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/504文档/招生/申请人员汇总.xlsx
+++ b/504文档/招生/申请人员汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="112">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,6 +439,10 @@
   </si>
   <si>
     <t>caizherencc@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -864,8 +868,8 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1472,7 +1476,9 @@
       <c r="F24" s="2">
         <v>15887841007</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/504文档/招生/申请人员汇总.xlsx
+++ b/504文档/招生/申请人员汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="119">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,10 +298,6 @@
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13294178152 or 18271933065</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -439,6 +435,38 @@
   </si>
   <si>
     <t>caizherencc@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13294178152 or 18271933065</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘思达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南昌航空大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高分子材料与工程专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1009010161@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -865,20 +893,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="30.44140625" customWidth="1"/>
     <col min="5" max="5" width="34.33203125" customWidth="1"/>
-    <col min="6" max="6" width="27.21875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="29" style="9" customWidth="1"/>
     <col min="9" max="9" width="18.44140625" customWidth="1"/>
     <col min="10" max="10" width="10.88671875" customWidth="1"/>
   </cols>
@@ -1006,13 +1035,13 @@
         <v>22</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>81</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>20</v>
@@ -1109,12 +1138,14 @@
       <c r="E9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5">
+        <v>18844191589</v>
+      </c>
       <c r="G9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>11</v>
@@ -1292,7 +1323,7 @@
         <v>81</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>80</v>
@@ -1301,153 +1332,171 @@
     </row>
     <row r="17" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="C17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="F17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="D18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="5">
+        <v>18911938852</v>
+      </c>
       <c r="G18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I18" s="5"/>
+      <c r="I18" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="F19" s="5">
+        <v>18202778868</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="I19" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="I20" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="5"/>
+        <v>115</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="E21" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="F21" s="5">
+        <v>18770004360</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="2"/>
+    <row r="22" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1457,27 +1506,54 @@
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="2">
+      <c r="F25" s="2">
         <v>15887841007</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>111</v>
+      <c r="G25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/504文档/招生/申请人员汇总.xlsx
+++ b/504文档/招生/申请人员汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="124">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -471,6 +471,26 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁亚飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰州理工大学校本部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高分子材料与工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1943169330@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -893,11 +913,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1462,65 +1482,65 @@
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="5"/>
+        <v>121</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="E22" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" s="5"/>
+        <v>123</v>
+      </c>
+      <c r="F22" s="5">
+        <v>18119495686</v>
+      </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J23" s="2"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1530,29 +1550,53 @@
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F26" s="2">
         <v>15887841007</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>10</v>
       </c>
     </row>

--- a/504文档/招生/申请人员汇总.xlsx
+++ b/504文档/招生/申请人员汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="132">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -491,6 +491,36 @@
   </si>
   <si>
     <t>1943169330@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安居增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海师范大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非均相不对称催化剂</t>
+  </si>
+  <si>
+    <t>anjz1224@126.com</t>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,18 +943,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.44140625" customWidth="1"/>
     <col min="2" max="2" width="7.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="30.44140625" customWidth="1"/>
     <col min="5" max="5" width="34.33203125" customWidth="1"/>
     <col min="6" max="6" width="29" style="9" customWidth="1"/>
@@ -1134,9 +1164,15 @@
       <c r="E8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="F8" s="5">
+        <v>13161887854</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="I8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1236,8 +1272,12 @@
       <c r="E12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="F12" s="5">
+        <v>18202724989</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5" t="s">
         <v>11</v>
@@ -1574,29 +1614,57 @@
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="2">
+        <v>18317065573</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F27" s="2">
         <v>15887841007</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>10</v>
       </c>
     </row>

--- a/504文档/招生/申请人员汇总.xlsx
+++ b/504文档/招生/申请人员汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="123">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,14 +55,6 @@
     <t>2609830804@qq.com</t>
   </si>
   <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王佳齐</t>
   </si>
   <si>
@@ -75,10 +67,6 @@
     <t>435265030@qq.com</t>
   </si>
   <si>
-    <t>参观实验室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陆纯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,10 +78,6 @@
     <t>luchunjiangsu@163.com</t>
   </si>
   <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李亚武</t>
   </si>
   <si>
@@ -198,10 +182,6 @@
     <t>2473778407@qq.com</t>
   </si>
   <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>沈阳工业大学</t>
   </si>
   <si>
@@ -257,18 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王亚强</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,14 +254,6 @@
   </si>
   <si>
     <t>xiao.qaing@aliyun.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一波通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -442,10 +402,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13294178152 or 18271933065</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -521,6 +477,14 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13294178152/18271933065</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,11 +907,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -958,16 +922,14 @@
     <col min="4" max="4" width="30.44140625" customWidth="1"/>
     <col min="5" max="5" width="34.33203125" customWidth="1"/>
     <col min="6" max="6" width="29" style="9" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -982,24 +944,18 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
@@ -1013,659 +969,558 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F8" s="5">
         <v>13161887854</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F9" s="5">
         <v>18844191589</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F11" s="5">
         <v>15680021326</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F12" s="5">
         <v>18202724989</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F15" s="5">
         <v>15503591138</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F16" s="5">
         <v>15801027057</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="C17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="I17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F18" s="5">
         <v>18911938852</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H18" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="B19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="E19" s="5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F19" s="5">
         <v>18202778868</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F21" s="5">
         <v>18770004360</v>
       </c>
       <c r="G21" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="F22" s="5">
         <v>18119495686</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="2">
+        <v>13693212028</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F26" s="2">
         <v>18317065573</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F27" s="2">
         <v>15887841007</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/504文档/招生/申请人员汇总.xlsx
+++ b/504文档/招生/申请人员汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="129">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,6 +485,30 @@
   </si>
   <si>
     <t>13294178152/18271933065</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放弃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -604,6 +628,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -907,24 +934,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" customWidth="1"/>
-    <col min="5" max="5" width="34.33203125" customWidth="1"/>
-    <col min="6" max="6" width="29" style="9" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="29.77734375" customWidth="1"/>
+    <col min="5" max="5" width="32.88671875" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -949,8 +976,11 @@
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I1" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -969,8 +999,9 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -989,8 +1020,9 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1041,9 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1035,8 +1068,9 @@
       <c r="H5" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
@@ -1055,8 +1089,9 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
@@ -1075,8 +1110,9 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
@@ -1101,8 +1137,9 @@
       <c r="H8" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -1127,8 +1164,9 @@
       <c r="H9" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
@@ -1147,8 +1185,9 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
@@ -1167,8 +1206,9 @@
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
@@ -1191,8 +1231,9 @@
         <v>120</v>
       </c>
       <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
@@ -1211,8 +1252,9 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>46</v>
       </c>
@@ -1231,8 +1273,11 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I14" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>62</v>
       </c>
@@ -1253,8 +1298,11 @@
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I15" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>66</v>
       </c>
@@ -1279,8 +1327,9 @@
       <c r="H16" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>80</v>
       </c>
@@ -1297,8 +1346,11 @@
         <v>86</v>
       </c>
       <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>82</v>
       </c>
@@ -1323,8 +1375,9 @@
       <c r="H18" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>89</v>
       </c>
@@ -1347,8 +1400,11 @@
         <v>107</v>
       </c>
       <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I19" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>93</v>
       </c>
@@ -1367,8 +1423,9 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>102</v>
       </c>
@@ -1391,8 +1448,11 @@
         <v>101</v>
       </c>
       <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I21" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>108</v>
       </c>
@@ -1413,8 +1473,11 @@
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I22" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>97</v>
       </c>
@@ -1431,8 +1494,9 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -1455,8 +1519,9 @@
         <v>121</v>
       </c>
       <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>58</v>
       </c>
@@ -1472,11 +1537,14 @@
       <c r="E25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2">
+        <v>15202157730</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>115</v>
       </c>
@@ -1499,8 +1567,9 @@
         <v>120</v>
       </c>
       <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>74</v>
       </c>
@@ -1522,6 +1591,8 @@
       <c r="G27" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/504文档/招生/申请人员汇总.xlsx
+++ b/504文档/招生/申请人员汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="131">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,6 +509,14 @@
   </si>
   <si>
     <t>放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -938,7 +946,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1020,7 +1028,9 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1089,7 +1099,9 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -1494,7 +1506,9 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="7"/>
+      <c r="I23" s="7" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">

--- a/504文档/招生/申请人员汇总.xlsx
+++ b/504文档/招生/申请人员汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="147">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -513,6 +513,70 @@
   </si>
   <si>
     <t>放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏彦阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨工业大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溶液与凝胶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weiyy89@126.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗恒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luoheng94@163.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -577,7 +641,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,6 +666,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -615,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -641,6 +711,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -942,11 +1019,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1009,26 +1086,26 @@
       <c r="H2" s="5"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="7" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1051,7 +1128,9 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1078,7 +1157,9 @@
       <c r="H5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1149,7 +1230,9 @@
       <c r="H8" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="9" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -1209,16 +1292,22 @@
       <c r="C11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="E11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="5">
         <v>15680021326</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -1245,72 +1334,74 @@
       <c r="H12" s="5"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="7" t="s">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="11">
         <v>15503591138</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="7" t="s">
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1387,7 +1478,9 @@
       <c r="H18" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="7" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="19" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1432,10 +1525,16 @@
       <c r="E20" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="F20" s="5">
+        <v>15955150087</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="7"/>
+      <c r="I20" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="21" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -1466,147 +1565,199 @@
     </row>
     <row r="22" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>111</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="F22" s="5">
-        <v>18119495686</v>
-      </c>
-      <c r="G22" s="5"/>
+        <v>18811409105</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="7" t="s">
-        <v>127</v>
-      </c>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="E23" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+        <v>112</v>
+      </c>
+      <c r="F23" s="5">
+        <v>18119495686</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="H23" s="5"/>
       <c r="I23" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="2">
-        <v>13693212028</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="F25" s="2">
-        <v>15202157730</v>
-      </c>
-      <c r="G25" s="2"/>
+        <v>13693212028</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2">
-        <v>18317065573</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>120</v>
-      </c>
+        <v>15202157730</v>
+      </c>
+      <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="2">
+        <v>18317065573</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="2">
+        <v>15263105925</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F29" s="2">
         <v>15887841007</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/504文档/招生/申请人员汇总.xlsx
+++ b/504文档/招生/申请人员汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="159">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -577,6 +577,54 @@
   </si>
   <si>
     <t>luoheng94@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张宪硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰州大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胶体化学和溶液热力学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangxianshuo2010@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王蓉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>候仪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -641,18 +689,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -662,13 +704,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,44 +739,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7DEE8"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7DEE8"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7DEE8"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7DEE8"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1019,747 +1113,812 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="7.21875" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="29.77734375" customWidth="1"/>
-    <col min="5" max="5" width="32.88671875" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" customWidth="1"/>
+    <col min="6" max="6" width="25.77734375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="14">
+        <v>13699287273</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="14">
+        <v>15156214484</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="14">
+        <v>13161887854</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="14">
+        <v>18844191589</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="14">
+        <v>15680021326</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="14">
+        <v>18202724989</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="14">
+        <v>15801027057</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="14">
+        <v>18911938852</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="14">
+        <v>18202778868</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="14">
+        <v>15955150087</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="14">
+        <v>18770004360</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="14">
+        <v>18811409105</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="14">
+        <v>18119495686</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="21" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="5">
-        <v>13161887854</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="5">
-        <v>18844191589</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="5">
-        <v>15680021326</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="5">
-        <v>18202724989</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="E21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="22" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="11">
-        <v>15503591138</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="5">
-        <v>15801027057</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="5">
-        <v>18911938852</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="5">
-        <v>18202778868</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="5">
-        <v>15955150087</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="5">
-        <v>18770004360</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="5">
-        <v>18811409105</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>146</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I22" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="F23" s="5">
-        <v>18119495686</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>135</v>
-      </c>
+        <v>15503591138</v>
+      </c>
+      <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="I23" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>13693212028</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="H25" s="1"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>15202157730</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>18317065573</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="H27" s="1"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>15263105925</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="H28" s="1"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F30" s="1">
         <v>15887841007</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G30" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:I29">
+    <sortCondition sortBy="cellColor" ref="A2:A29" dxfId="1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/504文档/招生/申请人员汇总.xlsx
+++ b/504文档/招生/申请人员汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="168">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,9 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王洪玉</t>
-  </si>
-  <si>
     <t>专业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,9 +47,6 @@
   </si>
   <si>
     <t>材料化学</t>
-  </si>
-  <si>
-    <t>2609830804@qq.com</t>
   </si>
   <si>
     <t>王佳齐</t>
@@ -629,6 +623,50 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王洪玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料化学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2609830804@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔春燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学科学与工程学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1424529545@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放弃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -739,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -779,39 +817,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7DEE8"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7DEE8"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7DEE8"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7DEE8"/>
+          <fgColor rgb="FFFFFFFF"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -1113,11 +1130,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1138,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>2</v>
@@ -1153,771 +1170,800 @@
         <v>3</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>16</v>
       </c>
       <c r="F2" s="14">
         <v>13699287273</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="14">
         <v>15156214484</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="14">
         <v>13161887854</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6" s="14">
         <v>18844191589</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="14">
         <v>15680021326</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8" s="14">
         <v>18202724989</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F9" s="14">
-        <v>15801027057</v>
+        <v>18911938852</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F10" s="14">
-        <v>18911938852</v>
+        <v>18202778868</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>79</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="H10" s="14"/>
       <c r="I10" s="15" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F11" s="14">
-        <v>18202778868</v>
+        <v>15955150087</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="15" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F12" s="14">
-        <v>15955150087</v>
+        <v>18770004360</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="15" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="F13" s="14">
-        <v>18770004360</v>
+        <v>18811409105</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="15" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="F14" s="14">
-        <v>18811409105</v>
+        <v>18119495686</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="15" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="14">
-        <v>18119495686</v>
+      <c r="A15" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="17">
+        <v>15705420731</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="H15" s="14"/>
-      <c r="I15" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="12" t="s">
-        <v>148</v>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="14">
+        <v>18304031680</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="F20" s="5">
+        <v>15801027057</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="I20" s="6" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>42</v>
+        <v>10</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>49</v>
+        <v>7</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="5">
-        <v>15503591138</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="E24" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="F24" s="5">
+        <v>15503591138</v>
+      </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="1">
-        <v>13693212028</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="3"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F26" s="1">
-        <v>15202157730</v>
-      </c>
-      <c r="G26" s="1"/>
+        <v>13693212028</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="F27" s="1">
-        <v>18317065573</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>15202157730</v>
+      </c>
+      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="F28" s="1">
-        <v>15263105925</v>
+        <v>18317065573</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="1">
+        <v>15263105925</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:9" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30" s="1">
+      <c r="F31" s="1">
         <v>15887841007</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="G31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I29">
-    <sortCondition sortBy="cellColor" ref="A2:A29" dxfId="1"/>
+  <sortState ref="A17:I24">
+    <sortCondition descending="1" sortBy="cellColor" ref="A17:A24" dxfId="0"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/504文档/招生/申请人员汇总.xlsx
+++ b/504文档/招生/申请人员汇总.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956"/>
@@ -1132,9 +1132,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/504文档/招生/申请人员汇总.xlsx
+++ b/504文档/招生/申请人员汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="182">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -667,6 +667,50 @@
   </si>
   <si>
     <t>放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘晓光</t>
+  </si>
+  <si>
+    <t>山东师范大学</t>
+  </si>
+  <si>
+    <t>应用化学</t>
+  </si>
+  <si>
+    <t>dadabudabuxiao@126.com</t>
+  </si>
+  <si>
+    <t>方文元</t>
+  </si>
+  <si>
+    <t>18253162617@163.com</t>
+  </si>
+  <si>
+    <t>董平</t>
+  </si>
+  <si>
+    <t>物理化学专业</t>
+  </si>
+  <si>
+    <t>武汉大学</t>
+  </si>
+  <si>
+    <t>pdong6673@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周良围</t>
+  </si>
+  <si>
+    <t>超疏水材料</t>
+  </si>
+  <si>
+    <t>zhouliangwei@whu.edu.cn</t>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1130,11 +1174,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1947,17 +1991,82 @@
     </row>
     <row r="32" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1967,6 +2076,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/504文档/招生/申请人员汇总.xlsx
+++ b/504文档/招生/申请人员汇总.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956"/>
@@ -1133,8 +1133,8 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1638,26 +1638,26 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6" t="s">
         <v>167</v>
       </c>
     </row>
